--- a/docs/项目施工表.xlsx
+++ b/docs/项目施工表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011F98ED-B553-4949-B431-3174C1F58F3B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976C7AF1-1CAA-4657-9293-1C8CC22F006D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,6 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -325,12 +326,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -620,28 +622,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:AJ58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="3" width="24.5" customWidth="1"/>
     <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="7" max="36" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="E1" t="s">
         <v>30</v>
       </c>
       <c r="F1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="G1" s="5">
+        <v>43586</v>
+      </c>
+      <c r="H1" s="5">
+        <v>43587</v>
+      </c>
+      <c r="I1" s="5">
+        <v>43588</v>
+      </c>
+      <c r="J1" s="5">
+        <v>43589</v>
+      </c>
+      <c r="K1" s="5">
+        <v>43590</v>
+      </c>
+      <c r="L1" s="5">
+        <v>43591</v>
+      </c>
+      <c r="M1" s="5">
+        <v>43592</v>
+      </c>
+      <c r="N1" s="5">
+        <v>43593</v>
+      </c>
+      <c r="O1" s="5">
+        <v>43594</v>
+      </c>
+      <c r="P1" s="5">
+        <v>43595</v>
+      </c>
+      <c r="Q1" s="5">
+        <v>43596</v>
+      </c>
+      <c r="R1" s="5">
+        <v>43597</v>
+      </c>
+      <c r="S1" s="5">
+        <v>43598</v>
+      </c>
+      <c r="T1" s="5">
+        <v>43599</v>
+      </c>
+      <c r="U1" s="5">
+        <v>43600</v>
+      </c>
+      <c r="V1" s="5">
+        <v>43601</v>
+      </c>
+      <c r="W1" s="5">
+        <v>43602</v>
+      </c>
+      <c r="X1" s="5">
+        <v>43603</v>
+      </c>
+      <c r="Y1" s="5">
+        <v>43604</v>
+      </c>
+      <c r="Z1" s="5">
+        <v>43605</v>
+      </c>
+      <c r="AA1" s="5">
+        <v>43606</v>
+      </c>
+      <c r="AB1" s="5">
+        <v>43607</v>
+      </c>
+      <c r="AC1" s="5">
+        <v>43608</v>
+      </c>
+      <c r="AD1" s="5">
+        <v>43609</v>
+      </c>
+      <c r="AE1" s="5">
+        <v>43610</v>
+      </c>
+      <c r="AF1" s="5">
+        <v>43611</v>
+      </c>
+      <c r="AG1" s="5">
+        <v>43612</v>
+      </c>
+      <c r="AH1" s="5">
+        <v>43613</v>
+      </c>
+      <c r="AI1" s="5">
+        <v>43614</v>
+      </c>
+      <c r="AJ1" s="5">
+        <v>43615</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -656,8 +749,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A3" s="8"/>
       <c r="B3" s="1" t="s">
         <v>40</v>
       </c>
@@ -670,8 +763,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
       <c r="B4" s="1" t="s">
         <v>48</v>
       </c>
@@ -684,8 +777,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A5" s="8"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -698,8 +791,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
@@ -712,8 +805,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
@@ -726,8 +819,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
@@ -740,8 +833,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
@@ -754,8 +847,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
@@ -768,8 +861,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
       <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
@@ -782,8 +875,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A12" s="8"/>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
@@ -796,8 +889,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
       <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
@@ -810,8 +903,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
@@ -824,8 +917,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
       <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
@@ -838,8 +931,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
@@ -853,7 +946,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
@@ -867,7 +960,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
+      <c r="A18" s="8"/>
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
@@ -881,7 +974,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
+      <c r="A19" s="8"/>
       <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,7 +988,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
+      <c r="A20" s="8"/>
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,7 +1002,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
+      <c r="A21" s="8"/>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
@@ -923,7 +1016,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
+      <c r="A22" s="8"/>
       <c r="B22" s="3" t="s">
         <v>19</v>
       </c>
@@ -937,8 +1030,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="5" t="s">
+      <c r="A23" s="8"/>
+      <c r="B23" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -953,8 +1046,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="5"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="3" t="s">
         <v>37</v>
       </c>
@@ -967,7 +1060,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
+      <c r="A25" s="8"/>
       <c r="B25" s="2" t="s">
         <v>20</v>
       </c>
@@ -983,7 +1076,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
+      <c r="A26" s="8"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
         <v>22</v>
@@ -997,7 +1090,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
+      <c r="A27" s="8"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
         <v>27</v>
@@ -1011,7 +1104,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
+      <c r="A28" s="8"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
         <v>28</v>
@@ -1025,7 +1118,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
+      <c r="A29" s="8"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
         <v>23</v>
@@ -1039,7 +1132,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="7"/>
+      <c r="A30" s="8"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
         <v>24</v>
@@ -1053,7 +1146,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="7"/>
+      <c r="A31" s="8"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
         <v>25</v>
@@ -1067,7 +1160,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="7"/>
+      <c r="A32" s="8"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
         <v>26</v>
@@ -1081,8 +1174,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="7"/>
-      <c r="B33" s="6" t="s">
+      <c r="A33" s="8"/>
+      <c r="B33" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -1097,8 +1190,8 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="7"/>
-      <c r="B34" s="6"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="7"/>
       <c r="C34" s="2" t="s">
         <v>49</v>
       </c>
@@ -1111,8 +1204,8 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="7"/>
-      <c r="B35" s="6"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="7"/>
       <c r="C35" s="2" t="s">
         <v>46</v>
       </c>
@@ -1125,8 +1218,8 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="7"/>
-      <c r="B36" s="6"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="7"/>
       <c r="C36" s="2" t="s">
         <v>41</v>
       </c>
@@ -1139,8 +1232,8 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="7"/>
-      <c r="B37" s="6"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="7"/>
       <c r="C37" s="2" t="s">
         <v>45</v>
       </c>
@@ -1153,8 +1246,8 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="7"/>
-      <c r="B38" s="6"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="7"/>
       <c r="C38" s="2" t="s">
         <v>43</v>
       </c>
@@ -1167,8 +1260,8 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="7"/>
-      <c r="B39" s="6"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="7"/>
       <c r="C39" s="2" t="s">
         <v>42</v>
       </c>
@@ -1181,8 +1274,8 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="7"/>
-      <c r="B40" s="6"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="7"/>
       <c r="C40" s="3" t="s">
         <v>44</v>
       </c>
@@ -1195,8 +1288,8 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="7"/>
-      <c r="B41" s="6"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="7"/>
       <c r="C41" s="3" t="s">
         <v>47</v>
       </c>
@@ -1209,8 +1302,8 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="7"/>
-      <c r="B42" s="6"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="7"/>
       <c r="C42" s="3" t="s">
         <v>39</v>
       </c>

--- a/docs/项目施工表.xlsx
+++ b/docs/项目施工表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976C7AF1-1CAA-4657-9293-1C8CC22F006D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10E21EE-0979-42C0-A889-C0711FFEF5FE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>WEBAPP</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -265,6 +264,22 @@
   </si>
   <si>
     <t>工时（人/天）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预付款4014（30%）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度款6690（50%）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尾款2676（20%）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -272,7 +287,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,8 +302,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,6 +335,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -326,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -340,6 +368,11 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -624,15 +657,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="3" width="24.5" customWidth="1"/>
-    <col min="6" max="6" width="12.375" customWidth="1"/>
-    <col min="7" max="36" width="11.25" customWidth="1"/>
+    <col min="4" max="6" width="16.25" customWidth="1"/>
+    <col min="7" max="31" width="11.25" customWidth="1"/>
+    <col min="32" max="32" width="11.25" style="10" customWidth="1"/>
+    <col min="33" max="36" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.2">
@@ -717,7 +752,7 @@
       <c r="AE1" s="5">
         <v>43610</v>
       </c>
-      <c r="AF1" s="5">
+      <c r="AF1" s="9">
         <v>43611</v>
       </c>
       <c r="AG1" s="5">
@@ -748,6 +783,9 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
+      <c r="AF2" s="11" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
@@ -762,6 +800,7 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
+      <c r="AF3" s="11"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
@@ -776,6 +815,7 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
+      <c r="AF4" s="11"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
@@ -790,6 +830,7 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
+      <c r="AF5" s="11"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
@@ -804,6 +845,7 @@
       <c r="F6" s="3">
         <v>1</v>
       </c>
+      <c r="AF6" s="11"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
@@ -818,6 +860,7 @@
       <c r="F7" s="3">
         <v>1</v>
       </c>
+      <c r="AF7" s="11"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
@@ -832,6 +875,7 @@
       <c r="F8" s="3">
         <v>1</v>
       </c>
+      <c r="AF8" s="11"/>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
@@ -846,6 +890,7 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
+      <c r="AF9" s="11"/>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
@@ -860,6 +905,7 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
+      <c r="AF10" s="11"/>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
@@ -874,6 +920,7 @@
       <c r="F11" s="3">
         <v>1</v>
       </c>
+      <c r="AF11" s="11"/>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
@@ -888,6 +935,7 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
+      <c r="AF12" s="11"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
@@ -902,6 +950,7 @@
       <c r="F13" s="3">
         <v>1</v>
       </c>
+      <c r="AF13" s="11"/>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
@@ -916,6 +965,7 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
+      <c r="AF14" s="11"/>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
@@ -930,6 +980,7 @@
       <c r="F15" s="3">
         <v>1</v>
       </c>
+      <c r="AF15" s="11"/>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
@@ -944,8 +995,9 @@
       <c r="F16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="AF16" s="11"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="3" t="s">
         <v>17</v>
@@ -958,8 +1010,9 @@
       <c r="F17" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="AF17" s="11"/>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="1" t="s">
         <v>18</v>
@@ -972,8 +1025,9 @@
       <c r="F18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="AF18" s="11"/>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="1" t="s">
         <v>6</v>
@@ -986,8 +1040,9 @@
       <c r="F19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="AF19" s="11"/>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="1" t="s">
         <v>7</v>
@@ -1000,8 +1055,9 @@
       <c r="F20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="AF20" s="11"/>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="1" t="s">
         <v>8</v>
@@ -1014,8 +1070,9 @@
       <c r="F21" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="AF21" s="11"/>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="3" t="s">
         <v>19</v>
@@ -1028,8 +1085,9 @@
       <c r="F22" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="AF22" s="11"/>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="6" t="s">
         <v>35</v>
@@ -1044,8 +1102,9 @@
       <c r="F23" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="AF23" s="11"/>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="6"/>
       <c r="C24" s="3" t="s">
@@ -1058,8 +1117,9 @@
       <c r="F24" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="AF24" s="11"/>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="2" t="s">
         <v>20</v>
@@ -1074,8 +1134,9 @@
       <c r="F25" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="AF25" s="11"/>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
@@ -1088,8 +1149,9 @@
       <c r="F26" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="AF26" s="11"/>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
@@ -1102,8 +1164,9 @@
       <c r="F27" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="AF27" s="11"/>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
@@ -1116,8 +1179,9 @@
       <c r="F28" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="AF28" s="11"/>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
@@ -1130,8 +1194,9 @@
       <c r="F29" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="AF29" s="11"/>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
@@ -1144,8 +1209,9 @@
       <c r="F30" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="AF30" s="11"/>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
@@ -1158,8 +1224,9 @@
       <c r="F31" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="AF31" s="11"/>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
@@ -1172,8 +1239,9 @@
       <c r="F32" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="AF32" s="11"/>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
       <c r="B33" s="7" t="s">
         <v>38</v>
@@ -1188,8 +1256,9 @@
       <c r="F33" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="AF33" s="11"/>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
       <c r="B34" s="7"/>
       <c r="C34" s="2" t="s">
@@ -1202,8 +1271,9 @@
       <c r="F34" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="AF34" s="11"/>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
       <c r="B35" s="7"/>
       <c r="C35" s="2" t="s">
@@ -1216,8 +1286,9 @@
       <c r="F35" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="AF35" s="11"/>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
       <c r="B36" s="7"/>
       <c r="C36" s="2" t="s">
@@ -1230,8 +1301,9 @@
       <c r="F36" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="AF36" s="11"/>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
       <c r="B37" s="7"/>
       <c r="C37" s="2" t="s">
@@ -1244,8 +1316,9 @@
       <c r="F37" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="AF37" s="11"/>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
       <c r="B38" s="7"/>
       <c r="C38" s="2" t="s">
@@ -1258,8 +1331,9 @@
       <c r="F38" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="AF38" s="11"/>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
       <c r="B39" s="7"/>
       <c r="C39" s="2" t="s">
@@ -1272,8 +1346,9 @@
       <c r="F39" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="AF39" s="11"/>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>
       <c r="B40" s="7"/>
       <c r="C40" s="3" t="s">
@@ -1286,8 +1361,9 @@
       <c r="F40" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="AF40" s="11"/>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41" s="8"/>
       <c r="B41" s="7"/>
       <c r="C41" s="3" t="s">
@@ -1300,8 +1376,9 @@
       <c r="F41" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="AF41" s="11"/>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" s="8"/>
       <c r="B42" s="7"/>
       <c r="C42" s="3" t="s">
@@ -1314,26 +1391,27 @@
       <c r="F42" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="AF42" s="11"/>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C46" s="4"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -1384,6 +1462,15 @@
       <c r="C55" t="s">
         <v>58</v>
       </c>
+      <c r="D55" t="s">
+        <v>61</v>
+      </c>
+      <c r="E55" t="s">
+        <v>62</v>
+      </c>
+      <c r="F55" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
@@ -1395,6 +1482,9 @@
       <c r="C56" s="1">
         <v>5060</v>
       </c>
+      <c r="D56" s="10">
+        <v>1518</v>
+      </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
@@ -1406,6 +1496,9 @@
       <c r="C57" s="3">
         <v>4100</v>
       </c>
+      <c r="D57" s="10">
+        <v>1230</v>
+      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
@@ -1417,12 +1510,16 @@
       <c r="C58" s="2">
         <v>4220</v>
       </c>
+      <c r="D58" s="10">
+        <v>1226</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B33:B42"/>
     <mergeCell ref="A2:A42"/>
+    <mergeCell ref="AF2:AF42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/项目施工表.xlsx
+++ b/docs/项目施工表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10E21EE-0979-42C0-A889-C0711FFEF5FE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9E65F8-81D2-4E65-A95A-F5AB30B513C9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5265" yWindow="2505" windowWidth="15810" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="64">
   <si>
     <t>WEBAPP</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -361,6 +361,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -370,8 +372,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -657,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -666,7 +666,7 @@
     <col min="2" max="3" width="24.5" customWidth="1"/>
     <col min="4" max="6" width="16.25" customWidth="1"/>
     <col min="7" max="31" width="11.25" customWidth="1"/>
-    <col min="32" max="32" width="11.25" style="10" customWidth="1"/>
+    <col min="32" max="32" width="11.25" style="7" customWidth="1"/>
     <col min="33" max="36" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -752,7 +752,7 @@
       <c r="AE1" s="5">
         <v>43610</v>
       </c>
-      <c r="AF1" s="9">
+      <c r="AF1" s="6">
         <v>43611</v>
       </c>
       <c r="AG1" s="5">
@@ -769,7 +769,7 @@
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -788,7 +788,7 @@
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="1" t="s">
         <v>40</v>
       </c>
@@ -803,7 +803,7 @@
       <c r="AF3" s="11"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="1" t="s">
         <v>48</v>
       </c>
@@ -818,7 +818,7 @@
       <c r="AF4" s="11"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -833,7 +833,7 @@
       <c r="AF5" s="11"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
@@ -848,7 +848,7 @@
       <c r="AF6" s="11"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
@@ -863,7 +863,7 @@
       <c r="AF7" s="11"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
@@ -878,7 +878,7 @@
       <c r="AF8" s="11"/>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
@@ -893,7 +893,7 @@
       <c r="AF9" s="11"/>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
@@ -908,7 +908,7 @@
       <c r="AF10" s="11"/>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
@@ -923,7 +923,7 @@
       <c r="AF11" s="11"/>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
@@ -938,7 +938,7 @@
       <c r="AF12" s="11"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
@@ -953,7 +953,7 @@
       <c r="AF13" s="11"/>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
@@ -968,7 +968,7 @@
       <c r="AF14" s="11"/>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
@@ -983,7 +983,7 @@
       <c r="AF15" s="11"/>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
@@ -998,7 +998,7 @@
       <c r="AF16" s="11"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
@@ -1013,7 +1013,7 @@
       <c r="AF17" s="11"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
@@ -1028,7 +1028,7 @@
       <c r="AF18" s="11"/>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
@@ -1043,7 +1043,7 @@
       <c r="AF19" s="11"/>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
@@ -1058,7 +1058,7 @@
       <c r="AF20" s="11"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
@@ -1073,7 +1073,7 @@
       <c r="AF21" s="11"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="3" t="s">
         <v>19</v>
       </c>
@@ -1088,8 +1088,8 @@
       <c r="AF22" s="11"/>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="10"/>
+      <c r="B23" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -1105,8 +1105,8 @@
       <c r="AF23" s="11"/>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="6"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="3" t="s">
         <v>37</v>
       </c>
@@ -1120,7 +1120,7 @@
       <c r="AF24" s="11"/>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
+      <c r="A25" s="10"/>
       <c r="B25" s="2" t="s">
         <v>20</v>
       </c>
@@ -1137,7 +1137,7 @@
       <c r="AF25" s="11"/>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
+      <c r="A26" s="10"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
         <v>22</v>
@@ -1152,7 +1152,7 @@
       <c r="AF26" s="11"/>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
+      <c r="A27" s="10"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
         <v>27</v>
@@ -1167,7 +1167,7 @@
       <c r="AF27" s="11"/>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
+      <c r="A28" s="10"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
         <v>28</v>
@@ -1182,7 +1182,7 @@
       <c r="AF28" s="11"/>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
+      <c r="A29" s="10"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
         <v>23</v>
@@ -1197,7 +1197,7 @@
       <c r="AF29" s="11"/>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
+      <c r="A30" s="10"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
         <v>24</v>
@@ -1212,7 +1212,7 @@
       <c r="AF30" s="11"/>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
+      <c r="A31" s="10"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
         <v>25</v>
@@ -1227,7 +1227,7 @@
       <c r="AF31" s="11"/>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
+      <c r="A32" s="10"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
         <v>26</v>
@@ -1242,8 +1242,8 @@
       <c r="AF32" s="11"/>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
-      <c r="B33" s="7" t="s">
+      <c r="A33" s="10"/>
+      <c r="B33" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -1259,8 +1259,8 @@
       <c r="AF33" s="11"/>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
-      <c r="B34" s="7"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="9"/>
       <c r="C34" s="2" t="s">
         <v>49</v>
       </c>
@@ -1274,8 +1274,8 @@
       <c r="AF34" s="11"/>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
-      <c r="B35" s="7"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="9"/>
       <c r="C35" s="2" t="s">
         <v>46</v>
       </c>
@@ -1289,8 +1289,8 @@
       <c r="AF35" s="11"/>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
-      <c r="B36" s="7"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="9"/>
       <c r="C36" s="2" t="s">
         <v>41</v>
       </c>
@@ -1304,8 +1304,8 @@
       <c r="AF36" s="11"/>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
-      <c r="B37" s="7"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="9"/>
       <c r="C37" s="2" t="s">
         <v>45</v>
       </c>
@@ -1319,8 +1319,8 @@
       <c r="AF37" s="11"/>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A38" s="8"/>
-      <c r="B38" s="7"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="9"/>
       <c r="C38" s="2" t="s">
         <v>43</v>
       </c>
@@ -1334,8 +1334,8 @@
       <c r="AF38" s="11"/>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A39" s="8"/>
-      <c r="B39" s="7"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="9"/>
       <c r="C39" s="2" t="s">
         <v>42</v>
       </c>
@@ -1349,8 +1349,8 @@
       <c r="AF39" s="11"/>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A40" s="8"/>
-      <c r="B40" s="7"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="9"/>
       <c r="C40" s="3" t="s">
         <v>44</v>
       </c>
@@ -1364,8 +1364,8 @@
       <c r="AF40" s="11"/>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A41" s="8"/>
-      <c r="B41" s="7"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="9"/>
       <c r="C41" s="3" t="s">
         <v>47</v>
       </c>
@@ -1379,8 +1379,8 @@
       <c r="AF41" s="11"/>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A42" s="8"/>
-      <c r="B42" s="7"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="9"/>
       <c r="C42" s="3" t="s">
         <v>39</v>
       </c>
@@ -1482,7 +1482,7 @@
       <c r="C56" s="1">
         <v>5060</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D56" s="7">
         <v>1518</v>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       <c r="C57" s="3">
         <v>4100</v>
       </c>
-      <c r="D57" s="10">
+      <c r="D57" s="7">
         <v>1230</v>
       </c>
     </row>
@@ -1510,8 +1510,8 @@
       <c r="C58" s="2">
         <v>4220</v>
       </c>
-      <c r="D58" s="10">
-        <v>1226</v>
+      <c r="D58" s="7">
+        <v>1266</v>
       </c>
     </row>
   </sheetData>

--- a/docs/项目施工表.xlsx
+++ b/docs/项目施工表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9E65F8-81D2-4E65-A95A-F5AB30B513C9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F3BFCA-5B73-403C-9D36-AF85E9E76C95}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5265" yWindow="2505" windowWidth="15810" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>WEBAPP</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -657,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1432,7 +1432,7 @@
         <v>31</v>
       </c>
       <c r="E50">
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -1440,7 +1440,7 @@
         <v>34</v>
       </c>
       <c r="E51">
-        <v>620</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">

--- a/docs/项目施工表.xlsx
+++ b/docs/项目施工表.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F3BFCA-5B73-403C-9D36-AF85E9E76C95}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB030C9-1E64-40AF-9AAC-149CAC7B03FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>WEBAPP</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -280,6 +280,26 @@
   </si>
   <si>
     <t>尾款2676（20%）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞拍订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付尾款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付定金页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞拍协议页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞拍机制</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -655,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ58"/>
+  <dimension ref="A1:AJ63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -999,15 +1019,15 @@
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
-      <c r="B17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3">
-        <v>360</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="B17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1">
+        <v>300</v>
+      </c>
+      <c r="F17" s="1">
         <v>1</v>
       </c>
       <c r="AF17" s="11"/>
@@ -1015,12 +1035,12 @@
     <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
@@ -1030,12 +1050,12 @@
     <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
       <c r="B19" s="1" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
@@ -1044,15 +1064,15 @@
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" s="10"/>
-      <c r="B20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1">
-        <v>500</v>
-      </c>
-      <c r="F20" s="1">
+      <c r="B20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3">
+        <v>360</v>
+      </c>
+      <c r="F20" s="3">
         <v>1</v>
       </c>
       <c r="AF20" s="11"/>
@@ -1060,12 +1080,12 @@
     <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
       <c r="B21" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
@@ -1074,103 +1094,103 @@
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
-      <c r="B22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3">
-        <v>300</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1">
+        <v>360</v>
+      </c>
+      <c r="F22" s="1">
         <v>1</v>
       </c>
       <c r="AF22" s="11"/>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
-      <c r="B23" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3">
-        <v>260</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1">
+        <v>500</v>
+      </c>
+      <c r="F23" s="1">
         <v>1</v>
       </c>
       <c r="AF23" s="11"/>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3">
-        <v>260</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="B24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1">
+        <v>300</v>
+      </c>
+      <c r="F24" s="1">
         <v>1</v>
       </c>
       <c r="AF24" s="11"/>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" s="10"/>
-      <c r="B25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2">
-        <v>280</v>
-      </c>
-      <c r="F25" s="2">
+      <c r="B25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3">
+        <v>300</v>
+      </c>
+      <c r="F25" s="3">
         <v>1</v>
       </c>
       <c r="AF25" s="11"/>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2">
-        <v>280</v>
-      </c>
-      <c r="F26" s="2">
+      <c r="B26" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3">
+        <v>260</v>
+      </c>
+      <c r="F26" s="3">
         <v>1</v>
       </c>
       <c r="AF26" s="11"/>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" s="10"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2">
-        <v>280</v>
-      </c>
-      <c r="F27" s="2">
+      <c r="B27" s="8"/>
+      <c r="C27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3">
+        <v>260</v>
+      </c>
+      <c r="F27" s="3">
         <v>1</v>
       </c>
       <c r="AF27" s="11"/>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" s="10"/>
-      <c r="B28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C28" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2">
@@ -1185,7 +1205,7 @@
       <c r="A29" s="10"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2">
@@ -1200,7 +1220,7 @@
       <c r="A30" s="10"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2">
@@ -1215,7 +1235,7 @@
       <c r="A31" s="10"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2">
@@ -1230,11 +1250,11 @@
       <c r="A32" s="10"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="F32" s="2">
         <v>1</v>
@@ -1243,15 +1263,13 @@
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" s="10"/>
-      <c r="B33" s="9" t="s">
-        <v>38</v>
-      </c>
+      <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="F33" s="2">
         <v>1</v>
@@ -1260,13 +1278,13 @@
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
-      <c r="B34" s="9"/>
+      <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F34" s="2">
         <v>1</v>
@@ -1275,9 +1293,9 @@
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35" s="10"/>
-      <c r="B35" s="9"/>
+      <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2">
@@ -1290,13 +1308,13 @@
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36" s="10"/>
-      <c r="B36" s="9"/>
+      <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="F36" s="2">
         <v>1</v>
@@ -1305,13 +1323,13 @@
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37" s="10"/>
-      <c r="B37" s="9"/>
+      <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="F37" s="2">
         <v>1</v>
@@ -1320,13 +1338,15 @@
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38" s="10"/>
-      <c r="B38" s="9"/>
+      <c r="B38" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="C38" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="F38" s="2">
         <v>1</v>
@@ -1337,7 +1357,7 @@
       <c r="A39" s="10"/>
       <c r="B39" s="9"/>
       <c r="C39" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2">
@@ -1351,14 +1371,14 @@
     <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40" s="10"/>
       <c r="B40" s="9"/>
-      <c r="C40" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3">
-        <v>200</v>
-      </c>
-      <c r="F40" s="3">
+      <c r="C40" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2">
+        <v>280</v>
+      </c>
+      <c r="F40" s="2">
         <v>1</v>
       </c>
       <c r="AF40" s="11"/>
@@ -1366,14 +1386,14 @@
     <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41" s="10"/>
       <c r="B41" s="9"/>
-      <c r="C41" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3">
-        <v>360</v>
-      </c>
-      <c r="F41" s="3">
+      <c r="C41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2">
+        <v>260</v>
+      </c>
+      <c r="F41" s="2">
         <v>1</v>
       </c>
       <c r="AF41" s="11"/>
@@ -1381,145 +1401,220 @@
     <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" s="10"/>
       <c r="B42" s="9"/>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2">
+        <v>260</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF42" s="11"/>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A43" s="10"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2">
+        <v>280</v>
+      </c>
+      <c r="F43" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF43" s="11"/>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A44" s="10"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2">
+        <v>300</v>
+      </c>
+      <c r="F44" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF44" s="11"/>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A45" s="10"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3">
+        <v>200</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF45" s="11"/>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A46" s="10"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3">
+        <v>360</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF46" s="11"/>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A47" s="10"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3">
+      <c r="D47" s="3"/>
+      <c r="E47" s="3">
         <v>300</v>
       </c>
-      <c r="F42" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF42" s="11"/>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="B43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="B44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="B45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="C46" s="4"/>
+      <c r="F47" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF47" s="11"/>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="B48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D49" t="s">
+      <c r="B49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C51" s="4"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
         <v>32</v>
       </c>
-      <c r="E49">
-        <f>SUM(E2:E48)</f>
-        <v>13380</v>
-      </c>
-      <c r="F49">
-        <f>SUM(F2:F48)</f>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D50" t="s">
+      <c r="E54">
+        <f>SUM(E2:E53)</f>
+        <v>14840</v>
+      </c>
+      <c r="F54">
+        <f>SUM(F2:F53)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
         <v>31</v>
       </c>
-      <c r="E50">
+      <c r="E55">
         <v>1500</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D51" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
         <v>34</v>
       </c>
-      <c r="E51">
+      <c r="E56">
         <v>120</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D52" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
         <v>33</v>
       </c>
-      <c r="E52">
-        <f>SUM(E49:E51)</f>
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="E57">
+        <f>SUM(E54:E56)</f>
+        <v>16460</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>57</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B60" t="s">
         <v>56</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C60" t="s">
         <v>58</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D60" t="s">
         <v>61</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E60" t="s">
         <v>62</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F60" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C61" s="1">
         <v>5060</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D61" s="7">
         <v>1518</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B62" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C62" s="3">
         <v>4100</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D62" s="7">
         <v>1230</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C63" s="2">
         <v>4220</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D63" s="7">
         <v>1266</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B33:B42"/>
-    <mergeCell ref="A2:A42"/>
-    <mergeCell ref="AF2:AF42"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B38:B47"/>
+    <mergeCell ref="A2:A47"/>
+    <mergeCell ref="AF2:AF47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/项目施工表.xlsx
+++ b/docs/项目施工表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB030C9-1E64-40AF-9AAC-149CAC7B03FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9C3C54-9D9B-4479-A25C-77E339211C09}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>WEBAPP</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -300,6 +300,10 @@
   </si>
   <si>
     <t>竞拍机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞拍订单额外增加</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -677,15 +681,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="3" width="24.5" customWidth="1"/>
     <col min="4" max="6" width="16.25" customWidth="1"/>
-    <col min="7" max="31" width="11.25" customWidth="1"/>
+    <col min="7" max="7" width="17.125" customWidth="1"/>
+    <col min="8" max="31" width="11.25" customWidth="1"/>
     <col min="32" max="32" width="11.25" style="7" customWidth="1"/>
     <col min="33" max="36" width="11.25" customWidth="1"/>
   </cols>
@@ -1494,22 +1499,22 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C51" s="4"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D54" t="s">
         <v>32</v>
       </c>
@@ -1522,32 +1527,32 @@
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D55" t="s">
         <v>31</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="7">
         <v>1500</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D56" t="s">
         <v>34</v>
       </c>
       <c r="E56">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D57" t="s">
         <v>33</v>
       </c>
       <c r="E57">
         <f>SUM(E54:E56)</f>
-        <v>16460</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+        <v>16340</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -1566,8 +1571,11 @@
       <c r="F60" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G60" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>50</v>
       </c>
@@ -1580,8 +1588,14 @@
       <c r="D61" s="7">
         <v>1518</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E61" s="7">
+        <v>2530</v>
+      </c>
+      <c r="F61" s="4">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>51</v>
       </c>
@@ -1594,8 +1608,14 @@
       <c r="D62" s="7">
         <v>1230</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E62" s="7">
+        <v>2050</v>
+      </c>
+      <c r="F62" s="4">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>52</v>
       </c>
@@ -1607,6 +1627,15 @@
       </c>
       <c r="D63" s="7">
         <v>1266</v>
+      </c>
+      <c r="E63" s="7">
+        <v>2110</v>
+      </c>
+      <c r="F63" s="4">
+        <v>844</v>
+      </c>
+      <c r="G63">
+        <v>660</v>
       </c>
     </row>
   </sheetData>
